--- a/classification/droptc/sentence/bert-base-uncased/freeze/37622020/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/37622020/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7236999273300171</v>
+        <v>0.9638854265213013</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9318755865097046</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6764802932739258</v>
+        <v>0.5595539212226868</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8954309225082397</v>
+        <v>0.60570228099823</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6521791219711304</v>
+        <v>0.992356538772583</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8280883431434631</v>
+        <v>0.9117674827575684</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3363775312900543</v>
+        <v>0.990397572517395</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7811285257339478</v>
+        <v>0.9949092268943787</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8782180547714233</v>
+        <v>0.990397572517395</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7197896242141724</v>
+        <v>0.9438781142234802</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.629813551902771</v>
+        <v>0.9674921631813049</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.9613237380981445</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6827936768531799</v>
+        <v>0.9651731848716736</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3254638314247131</v>
+        <v>0.6696441173553467</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3083497583866119</v>
+        <v>0.8764020204544067</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3756870627403259</v>
+        <v>0.9655423760414124</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4228047132492065</v>
+        <v>0.5776267051696777</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.9925852417945862</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3391622304916382</v>
+        <v>0.9265527129173279</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3903425335884094</v>
+        <v>0.9883137941360474</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4394560754299164</v>
+        <v>0.9769813418388367</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4394560754299164</v>
+        <v>0.9661802649497986</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5718740820884705</v>
+        <v>0.9353070259094238</v>
       </c>
     </row>
     <row r="25">
@@ -1127,14 +1127,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4247999489307404</v>
+        <v>0.5476735830307007</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5056156516075134</v>
+        <v>0.2930303812026978</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5057339072227478</v>
+        <v>0.8287396430969238</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8220974206924438</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8209079504013062</v>
+        <v>0.7893823981285095</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6736270189285278</v>
+        <v>0.9385652542114258</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7548712491989136</v>
+        <v>0.9427797198295593</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6632748246192932</v>
+        <v>0.6268733143806458</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8209227323532104</v>
+        <v>0.5587604641914368</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7903044819831848</v>
+        <v>0.6901589632034302</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6441190838813782</v>
+        <v>0.9403285384178162</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5460052490234375</v>
+        <v>0.965091347694397</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7620885968208313</v>
+        <v>0.877970814704895</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5671412348747253</v>
+        <v>0.8427942991256714</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6772415637969971</v>
+        <v>0.753339946269989</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7854988574981689</v>
+        <v>0.3911730647087097</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3762261569499969</v>
+        <v>0.9782042503356934</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5851091742515564</v>
+        <v>0.7640347480773926</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5526993274688721</v>
+        <v>0.6730770468711853</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7389496564865112</v>
+        <v>0.9740444421768188</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7530063986778259</v>
+        <v>0.7911114692687988</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5572461485862732</v>
+        <v>0.8635958433151245</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.505200982093811</v>
+        <v>0.3861774802207947</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4523245394229889</v>
+        <v>0.9067044258117676</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7801505923271179</v>
+        <v>0.9962106943130493</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6928372979164124</v>
+        <v>0.8602070212364197</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3695727586746216</v>
+        <v>0.2808146178722382</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8337275385856628</v>
+        <v>0.9124515652656555</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7498916983604431</v>
+        <v>0.8602070212364197</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7790576815605164</v>
+        <v>0.4960498511791229</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7035497426986694</v>
+        <v>0.9882954359054565</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.879047691822052</v>
+        <v>0.9984273910522461</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4317934811115265</v>
+        <v>0.9985780715942383</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7192760109901428</v>
+        <v>0.8490563631057739</v>
       </c>
     </row>
     <row r="59">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8011413216590881</v>
+        <v>0.9114614129066467</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.9633611440658569</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5363618135452271</v>
+        <v>0.8799020648002625</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6706743240356445</v>
+        <v>0.9927636981010437</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6388825178146362</v>
+        <v>0.6518754959106445</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7049912214279175</v>
+        <v>0.3721514940261841</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8432633876800537</v>
+        <v>0.8572665452957153</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.406631737947464</v>
+        <v>0.8572665452957153</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.415810763835907</v>
+        <v>0.5069945454597473</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7518115043640137</v>
+        <v>0.8572665452957153</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5500491261482239</v>
+        <v>0.5537314414978027</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7731282711029053</v>
+        <v>0.9720643162727356</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9643122553825378</v>
+        <v>0.4782289862632751</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3391622304916382</v>
+        <v>0.9702123999595642</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.9698148965835571</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4394560754299164</v>
+        <v>0.8969420194625854</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7147800922393799</v>
+        <v>0.6522854566574097</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6955325603485107</v>
+        <v>0.9698148965835571</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7174723744392395</v>
+        <v>0.9410123825073242</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3443626463413239</v>
+        <v>0.9698148965835571</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.681721568107605</v>
+        <v>0.9899178147315979</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7420188784599304</v>
+        <v>0.9105760455131531</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.871768593788147</v>
+        <v>0.628445029258728</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.79274982213974</v>
+        <v>0.9105760455131531</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.9543339610099792</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4228047132492065</v>
+        <v>0.9543339610099792</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2946545779705048</v>
+        <v>0.9930298924446106</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.909207284450531</v>
+        <v>0.766973078250885</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7863027453422546</v>
+        <v>0.8345920443534851</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9459211826324463</v>
+        <v>0.8853540420532227</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7397863864898682</v>
+        <v>0.9825658798217773</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6514861583709717</v>
+        <v>0.9613838791847229</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8753079175949097</v>
+        <v>0.9648207426071167</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.9676468372344971</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7664048671722412</v>
+        <v>0.9746521711349487</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3391622304916382</v>
+        <v>0.9784919023513794</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4042220413684845</v>
+        <v>0.971296489238739</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3277497589588165</v>
+        <v>0.5144017338752747</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6430478692054749</v>
+        <v>0.3861878514289856</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7989745736122131</v>
+        <v>0.981423556804657</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.437849372625351</v>
+        <v>0.2983899116516113</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4483547508716583</v>
+        <v>0.9487872123718262</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7029882669448853</v>
+        <v>0.9526973962783813</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6249375343322754</v>
+        <v>0.3444185256958008</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9414232969284058</v>
+        <v>0.9842840433120728</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5889076590538025</v>
+        <v>0.9346851110458374</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.9406707286834717</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9154888391494751</v>
+        <v>0.5633583664894104</v>
       </c>
     </row>
     <row r="107">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.437849372625351</v>
+        <v>0.4650407135486603</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8734617829322815</v>
+        <v>0.6777954697608948</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8563262820243835</v>
+        <v>0.7163373231887817</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6940321326255798</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6646357774734497</v>
+        <v>0.5112110376358032</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.633561372756958</v>
+        <v>0.479622483253479</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3941406309604645</v>
+        <v>0.897549569606781</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4592134356498718</v>
+        <v>0.7974915504455566</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6058288812637329</v>
+        <v>0.4407905340194702</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4392776787281036</v>
+        <v>0.8271871209144592</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7340790629386902</v>
+        <v>0.9637953639030457</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6203833818435669</v>
+        <v>0.5263830423355103</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6161402463912964</v>
+        <v>0.9516241550445557</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.7649090886116028</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.321230947971344</v>
+        <v>0.9446040391921997</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8605669736862183</v>
+        <v>0.9942345023155212</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7276427149772644</v>
+        <v>0.9446040391921997</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8322180509567261</v>
+        <v>0.9942345023155212</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6543852686882019</v>
+        <v>0.9446040391921997</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3637233376502991</v>
+        <v>0.9990122318267822</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7002221345901489</v>
+        <v>0.6508429646492004</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6145188212394714</v>
+        <v>0.9600253105163574</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6336719989776611</v>
+        <v>0.930050790309906</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7201017141342163</v>
+        <v>0.9910197854042053</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6475375294685364</v>
+        <v>0.4811512231826782</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6286238431930542</v>
+        <v>0.9948252439498901</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6380819082260132</v>
+        <v>0.4674021899700165</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8113107681274414</v>
+        <v>0.8630475401878357</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9198954701423645</v>
+        <v>0.4384498596191406</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6784793734550476</v>
+        <v>0.9959200620651245</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3950302600860596</v>
+        <v>0.9526294469833374</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4267911911010742</v>
+        <v>0.9968454241752625</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5833249688148499</v>
+        <v>0.9604324102401733</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3307502269744873</v>
+        <v>0.8459258079528809</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2948651611804962</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6893038153648376</v>
+        <v>0.6327246427536011</v>
       </c>
     </row>
     <row r="144">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.3880969285964966</v>
+        <v>0.9878799319267273</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5790711045265198</v>
+        <v>0.6327246427536011</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8298934102058411</v>
+        <v>0.9730657339096069</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3506685197353363</v>
+        <v>0.5537314414978027</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8960092663764954</v>
+        <v>0.9661012887954712</v>
       </c>
     </row>
     <row r="149">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4294291436672211</v>
+        <v>0.5782329440116882</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4828440546989441</v>
+        <v>0.4107893109321594</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6229777932167053</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9001073241233826</v>
+        <v>0.6276209354400635</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8471363186836243</v>
+        <v>0.991524338722229</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4038188457489014</v>
+        <v>0.7633956074714661</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8124766945838928</v>
+        <v>0.9782610535621643</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7115393280982971</v>
+        <v>0.7122014164924622</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7527328729629517</v>
+        <v>0.9944607019424438</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.3606361746788025</v>
+        <v>0.9513441920280457</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.67508864402771</v>
+        <v>0.9982826709747314</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8027369379997253</v>
+        <v>0.7789296507835388</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8019564747810364</v>
+        <v>0.9087233543395996</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7443681955337524</v>
+        <v>0.8472285270690918</v>
       </c>
     </row>
     <row r="163">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7521279454231262</v>
+        <v>0.4333863854408264</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2804023325443268</v>
+        <v>0.753690242767334</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5620466470718384</v>
+        <v>0.8969324231147766</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7420188784599304</v>
+        <v>0.9234479665756226</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.6430478692054749</v>
+        <v>0.3441344797611237</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8083720803260803</v>
+        <v>0.4334211945533752</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.6199972629547119</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="170">
@@ -5187,14 +5187,14 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5540319681167603</v>
+        <v>0.3441344797611237</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.321230947971344</v>
+        <v>0.4810639321804047</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3363775312900543</v>
+        <v>0.9961147308349609</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.4149289727210999</v>
+        <v>0.9318645000457764</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8808828592300415</v>
+        <v>0.9681075215339661</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9414232969284058</v>
+        <v>0.9318645000457764</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8929543495178223</v>
+        <v>0.9318645000457764</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.746225893497467</v>
+        <v>0.9681075215339661</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3643236756324768</v>
+        <v>0.9976759552955627</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7362657785415649</v>
+        <v>0.9964622855186462</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.80562824010849</v>
+        <v>0.8457186222076416</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.5523507595062256</v>
+        <v>0.547860324382782</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5997429490089417</v>
+        <v>0.9889233112335205</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7711867094039917</v>
+        <v>0.4133327603340149</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8005301952362061</v>
+        <v>0.9854406714439392</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.2600099742412567</v>
+        <v>0.9021968245506287</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4228047132492065</v>
+        <v>0.9103786945343018</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8497084379196167</v>
+        <v>0.9642898440361023</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.5889076590538025</v>
+        <v>0.9797448515892029</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9433268904685974</v>
+        <v>0.8220142126083374</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5629653334617615</v>
+        <v>0.9132352471351624</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7386443614959717</v>
+        <v>0.4772578179836273</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9001073241233826</v>
+        <v>0.9474723935127258</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.5819763541221619</v>
+        <v>0.9767587184906006</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.3643236756324768</v>
+        <v>0.8413700461387634</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5388295650482178</v>
+        <v>0.6113300919532776</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8357837796211243</v>
+        <v>0.9925852417945862</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6843834519386292</v>
+        <v>0.9789783358573914</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9082853198051453</v>
+        <v>0.907820463180542</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3218172788619995</v>
+        <v>0.9921323657035828</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4343385100364685</v>
+        <v>0.6440064311027527</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.6067186594009399</v>
+        <v>0.9857161641120911</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.5395063161849976</v>
+        <v>0.9799990057945251</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.3443626463413239</v>
+        <v>0.8577687740325928</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.7037187218666077</v>
+        <v>0.333128422498703</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6908284425735474</v>
+        <v>0.5515207648277283</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5367780327796936</v>
+        <v>0.9982078075408936</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6459476351737976</v>
+        <v>0.5187434554100037</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.6430478692054749</v>
+        <v>0.9928264617919922</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7695701718330383</v>
+        <v>0.5599204897880554</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.6539182066917419</v>
+        <v>0.9945456981658936</v>
       </c>
     </row>
   </sheetData>
